--- a/知识体系.xlsx
+++ b/知识体系.xlsx
@@ -1,212 +1,503 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B2B996-3C59-45B6-A3D5-B2E19D247860}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>编程语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>go</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>python</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构</t>
+  </si>
+  <si>
+    <t>栈</t>
+  </si>
+  <si>
+    <t>队列</t>
+  </si>
+  <si>
+    <t>树</t>
+  </si>
+  <si>
+    <t>哈希表</t>
   </si>
   <si>
     <t>网络基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TCP/UDP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HTTP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>OSPF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NAT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>操作系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多进程、多线程、协程</t>
   </si>
   <si>
     <t>锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多进程、多线程、协程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>进程间通信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>线程数据同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socket编程</t>
+  </si>
+  <si>
+    <t>开源软件</t>
+  </si>
+  <si>
+    <t>网络</t>
   </si>
   <si>
     <t>nginx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>openresty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>libevent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开源软件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kubernetes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数据存储</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>redis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>memcache</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mysql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈希表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最短路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Dijkstra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BFS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DFS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>socker编程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>贪心算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -214,9 +505,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -224,17 +757,61 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -283,7 +860,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -318,7 +895,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -492,227 +1069,222 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
       <c r="B38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2">
       <c r="B39" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/知识体系.xlsx
+++ b/知识体系.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="redis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>编程语言</t>
   </si>
@@ -58,6 +59,9 @@
     <t>NAT</t>
   </si>
   <si>
+    <t>待定</t>
+  </si>
+  <si>
     <t>操作系统</t>
   </si>
   <si>
@@ -76,6 +80,9 @@
     <t>socket编程</t>
   </si>
   <si>
+    <t>epoll事件</t>
+  </si>
+  <si>
     <t>开源软件</t>
   </si>
   <si>
@@ -131,6 +138,39 @@
   </si>
   <si>
     <t>动态规划</t>
+  </si>
+  <si>
+    <t>redis常用数据结构</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>redis事务</t>
+  </si>
+  <si>
+    <t>redis管道</t>
+  </si>
+  <si>
+    <t>redis集群</t>
+  </si>
+  <si>
+    <t>redis分布式锁</t>
+  </si>
+  <si>
+    <t>redis实现消息队列</t>
+  </si>
+  <si>
+    <t>redis过期机制</t>
+  </si>
+  <si>
+    <t>redis数据淘汰</t>
+  </si>
+  <si>
+    <t>redis sentinel原理</t>
+  </si>
+  <si>
+    <t>redis在当前项目的应用</t>
   </si>
 </sst>
 </file>
@@ -138,12 +178,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,16 +193,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,129 +321,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,25 +345,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,157 +507,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,21 +544,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,17 +572,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,25 +622,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -606,148 +639,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,13 +1108,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
@@ -1152,134 +1185,151 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:4">
       <c r="B14" t="s">
         <v>13</v>
       </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" ht="28.5" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
-      <c r="C23" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
       <c r="C26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" t="s">
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
       <c r="C30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" t="s">
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
-      <c r="C36" t="s">
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1287,4 +1337,92 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/知识体系.xlsx
+++ b/知识体系.xlsx
@@ -7,15 +7,17 @@
     <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="目录" sheetId="1" r:id="rId1"/>
     <sheet name="redis" sheetId="2" r:id="rId2"/>
+    <sheet name="nginx" sheetId="3" r:id="rId3"/>
+    <sheet name="k8s" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
   <si>
     <t>编程语言</t>
   </si>
@@ -29,6 +31,9 @@
     <t>python</t>
   </si>
   <si>
+    <t>待定</t>
+  </si>
+  <si>
     <t>数据结构</t>
   </si>
   <si>
@@ -50,6 +55,9 @@
     <t>TCP/UDP</t>
   </si>
   <si>
+    <t>完成</t>
+  </si>
+  <si>
     <t>HTTP</t>
   </si>
   <si>
@@ -59,9 +67,6 @@
     <t>NAT</t>
   </si>
   <si>
-    <t>待定</t>
-  </si>
-  <si>
     <t>操作系统</t>
   </si>
   <si>
@@ -140,18 +145,27 @@
     <t>动态规划</t>
   </si>
   <si>
+    <t>分治法</t>
+  </si>
+  <si>
+    <t>排序算法</t>
+  </si>
+  <si>
+    <t>归并排序</t>
+  </si>
+  <si>
     <t>redis常用数据结构</t>
   </si>
   <si>
-    <t>完成</t>
-  </si>
-  <si>
     <t>redis事务</t>
   </si>
   <si>
     <t>redis管道</t>
   </si>
   <si>
+    <t>redis分区</t>
+  </si>
+  <si>
     <t>redis集群</t>
   </si>
   <si>
@@ -171,6 +185,51 @@
   </si>
   <si>
     <t>redis在当前项目的应用</t>
+  </si>
+  <si>
+    <t>redis的内存优化</t>
+  </si>
+  <si>
+    <t>redis的短连接优化</t>
+  </si>
+  <si>
+    <t>Redis key的过期时间和永久有效分别怎么设置？</t>
+  </si>
+  <si>
+    <t>Redis回收进程如何工作的？</t>
+  </si>
+  <si>
+    <t>nginx配置管理</t>
+  </si>
+  <si>
+    <t>端口管理</t>
+  </si>
+  <si>
+    <t>nginx事件模块</t>
+  </si>
+  <si>
+    <t>nginx handler模块</t>
+  </si>
+  <si>
+    <t>nginx filter模块</t>
+  </si>
+  <si>
+    <t>共享内存</t>
+  </si>
+  <si>
+    <t>信号</t>
+  </si>
+  <si>
+    <t>信号量</t>
+  </si>
+  <si>
+    <t>原子操作</t>
+  </si>
+  <si>
+    <t>upstream模块</t>
+  </si>
+  <si>
+    <t>slab共享内存</t>
   </si>
 </sst>
 </file>
@@ -178,10 +237,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -193,7 +252,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,7 +275,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,120 +394,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -345,187 +404,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,26 +598,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,8 +616,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,15 +654,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -622,17 +663,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,10 +701,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,133 +713,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,10 +1167,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1135,201 +1194,231 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="28.5" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="3:4">
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="3:4">
       <c r="C30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="3:4">
       <c r="C31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1342,87 +1431,237 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B6" sqref="B5 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/知识体系.xlsx
+++ b/知识体系.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
   <si>
     <t>编程语言</t>
   </si>
@@ -154,6 +154,9 @@
     <t>归并排序</t>
   </si>
   <si>
+    <t>回溯算法</t>
+  </si>
+  <si>
     <t>redis常用数据结构</t>
   </si>
   <si>
@@ -230,6 +233,15 @@
   </si>
   <si>
     <t>slab共享内存</t>
+  </si>
+  <si>
+    <t>coredns</t>
+  </si>
+  <si>
+    <t>Ingress</t>
+  </si>
+  <si>
+    <t>flannel</t>
   </si>
 </sst>
 </file>
@@ -237,10 +249,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1167,10 +1179,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1419,6 +1431,11 @@
       </c>
       <c r="D43" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1433,8 +1450,8 @@
   <sheetPr/>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B5 B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1444,7 +1461,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
@@ -1452,7 +1469,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -1460,7 +1477,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -1468,7 +1485,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -1476,7 +1493,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1484,7 +1501,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -1492,7 +1509,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1500,7 +1517,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1508,7 +1525,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1516,7 +1533,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1524,12 +1541,12 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1537,7 +1554,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1545,7 +1562,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1553,7 +1570,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1581,27 +1598,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1611,7 +1628,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -1621,27 +1638,27 @@
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1653,14 +1670,30 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/知识体系.xlsx
+++ b/知识体系.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
   <si>
     <t>编程语言</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>upstream模块</t>
+  </si>
+  <si>
+    <t>负载均衡</t>
   </si>
   <si>
     <t>slab共享内存</t>
@@ -250,9 +253,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1585,10 +1588,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1656,9 +1659,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1672,25 +1680,25 @@
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/知识体系.xlsx
+++ b/知识体系.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
   <si>
     <t>编程语言</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>flannel</t>
+  </si>
+  <si>
+    <t>overlay network</t>
   </si>
 </sst>
 </file>
@@ -267,7 +270,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,133 +406,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -419,187 +422,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,17 +616,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,16 +635,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,6 +666,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -677,49 +713,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,133 +731,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1590,7 +1593,7 @@
   <sheetPr/>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1678,13 +1681,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1699,6 +1705,11 @@
     <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/知识体系.xlsx
+++ b/知识体系.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="3"/>
+    <workbookView windowWidth="21240" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
   <si>
     <t>编程语言</t>
   </si>
@@ -34,6 +34,9 @@
     <t>待定</t>
   </si>
   <si>
+    <t>lua</t>
+  </si>
+  <si>
     <t>数据结构</t>
   </si>
   <si>
@@ -46,6 +49,21 @@
     <t>树</t>
   </si>
   <si>
+    <t>二叉树</t>
+  </si>
+  <si>
+    <t>平衡二叉树</t>
+  </si>
+  <si>
+    <t>二叉搜索树</t>
+  </si>
+  <si>
+    <t>完全二叉树</t>
+  </si>
+  <si>
+    <t>红黑树</t>
+  </si>
+  <si>
     <t>哈希表</t>
   </si>
   <si>
@@ -202,6 +220,9 @@
     <t>Redis回收进程如何工作的？</t>
   </si>
   <si>
+    <t>nginx启动流程</t>
+  </si>
+  <si>
     <t>nginx配置管理</t>
   </si>
   <si>
@@ -209,6 +230,15 @@
   </si>
   <si>
     <t>nginx事件模块</t>
+  </si>
+  <si>
+    <t>事件驱动</t>
+  </si>
+  <si>
+    <t>定时事件</t>
+  </si>
+  <si>
+    <t>惊群问题</t>
   </si>
   <si>
     <t>nginx handler模块</t>
@@ -255,10 +285,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -270,14 +300,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,22 +429,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,91 +442,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -422,6 +452,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -434,30 +614,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -477,132 +633,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,11 +646,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,21 +666,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,6 +687,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -674,16 +706,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,11 +737,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,10 +749,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,133 +761,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1185,10 +1215,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1220,13 +1250,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1245,49 +1275,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
+    <row r="13" spans="3:3">
+      <c r="C13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
+    <row r="14" spans="3:3">
+      <c r="C14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
-      <c r="B14" t="s">
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" ht="28.5" spans="2:2">
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1306,19 +1333,16 @@
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    </row>
+    <row r="22" ht="28.5" spans="2:2">
+      <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1327,67 +1351,67 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="3:4">
-      <c r="C26" t="s">
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
-      <c r="C29" t="s">
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="3:4">
+    <row r="30" spans="3:3">
       <c r="C30" t="s">
         <v>31</v>
       </c>
-      <c r="D30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4">
+    </row>
+    <row r="31" spans="3:3">
       <c r="C31" t="s">
         <v>32</v>
       </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
-      <c r="C34" t="s">
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1396,18 +1420,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
+    <row r="36" spans="3:4">
+      <c r="C36" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="3:3">
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
       <c r="C37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" t="s">
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1416,13 +1446,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
+    <row r="40" spans="3:3">
+      <c r="C40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1431,17 +1461,47 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="3:4">
+    <row r="43" spans="3:3">
       <c r="C43" t="s">
         <v>44</v>
       </c>
-      <c r="D43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1467,92 +1527,92 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1560,7 +1620,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1568,7 +1628,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1576,7 +1636,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1591,85 +1651,114 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C6" sqref="C7 C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1681,35 +1770,41 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/知识体系.xlsx
+++ b/知识体系.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\data_structure\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65EC60C-1CE5-4303-9BED-A7970A328802}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="12165"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="87">
   <si>
     <t>编程语言</t>
   </si>
@@ -283,14 +289,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,345 +299,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -645,251 +321,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -897,61 +331,17 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1209,40 +599,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1250,67 +640,67 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -1318,17 +708,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>21</v>
       </c>
@@ -1336,32 +726,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" ht="28.5" spans="2:2">
+    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>27</v>
       </c>
@@ -1369,7 +759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>28</v>
       </c>
@@ -1377,27 +767,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="3:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -1405,22 +795,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="3:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>37</v>
       </c>
@@ -1428,7 +818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="3:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>38</v>
       </c>
@@ -1436,62 +826,62 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="3:3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="3:3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="3:4">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>50</v>
       </c>
@@ -1499,33 +889,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1533,7 +922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1541,7 +930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1549,7 +938,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1557,7 +946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1565,7 +954,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1573,7 +962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -1581,7 +970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -1589,7 +978,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -1597,7 +986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -1605,12 +994,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -1618,7 +1007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -1626,7 +1015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -1634,7 +1023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1643,26 +1032,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C7 C6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -1670,27 +1058,36 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="2:3">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>72</v>
       </c>
@@ -1698,7 +1095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>73</v>
       </c>
@@ -1706,87 +1103,92 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" activeCellId="1" sqref="B2 B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -1794,7 +1196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -1802,13 +1204,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/知识体系.xlsx
+++ b/知识体系.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\data_structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65EC60C-1CE5-4303-9BED-A7970A328802}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B156FE24-C695-441C-B735-925138400A9E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="87">
   <si>
     <t>编程语言</t>
   </si>
@@ -1041,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1115,6 +1115,9 @@
       <c r="A9" t="s">
         <v>75</v>
       </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1125,38 +1128,56 @@
       <c r="B11" t="s">
         <v>76</v>
       </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>24</v>
       </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>77</v>
       </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>78</v>
       </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>79</v>
       </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -1171,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="1" sqref="B2 B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/知识体系.xlsx
+++ b/知识体系.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\data_structure\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B156FE24-C695-441C-B735-925138400A9E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="87">
   <si>
     <t>编程语言</t>
   </si>
@@ -289,8 +283,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,21 +299,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -321,9 +645,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -331,17 +897,61 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -599,40 +1209,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -640,67 +1250,67 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:3">
       <c r="C10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:3">
       <c r="C12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:3">
       <c r="C13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:2">
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
         <v>17</v>
       </c>
@@ -708,17 +1318,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4">
       <c r="B20" t="s">
         <v>21</v>
       </c>
@@ -726,32 +1336,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" ht="28.5" spans="2:4">
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
       <c r="B23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
       <c r="B24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
       <c r="B25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
       <c r="B26" t="s">
         <v>27</v>
       </c>
@@ -759,7 +1381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4">
       <c r="B27" t="s">
         <v>28</v>
       </c>
@@ -767,27 +1389,30 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2">
       <c r="B29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:4">
       <c r="C30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
       <c r="C31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:4">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -795,22 +1420,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:3">
       <c r="C33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2">
       <c r="B34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3">
       <c r="C35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:4">
       <c r="C36" t="s">
         <v>37</v>
       </c>
@@ -818,7 +1443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:4">
       <c r="C37" t="s">
         <v>38</v>
       </c>
@@ -826,62 +1451,62 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2">
       <c r="B39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:3">
       <c r="C40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:3">
       <c r="C41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2">
       <c r="B42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:3">
       <c r="C43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:3">
       <c r="C44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2">
       <c r="B45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2">
       <c r="B46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2">
       <c r="B47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2">
       <c r="B48" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:4">
       <c r="C49" t="s">
         <v>50</v>
       </c>
@@ -889,32 +1514,33 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2">
       <c r="B50" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -922,7 +1548,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -930,7 +1556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -938,7 +1564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -946,7 +1572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -954,7 +1580,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -962,7 +1588,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -970,7 +1596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -978,7 +1604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -986,7 +1612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -994,12 +1620,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -1007,7 +1633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -1015,7 +1641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -1023,7 +1649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1032,25 +1658,26 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -1058,7 +1685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -1066,7 +1693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>69</v>
       </c>
@@ -1074,12 +1701,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>71</v>
       </c>
@@ -1087,7 +1714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
         <v>72</v>
       </c>
@@ -1095,7 +1722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>73</v>
       </c>
@@ -1103,7 +1730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -1111,7 +1738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -1119,12 +1746,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3">
       <c r="B11" t="s">
         <v>76</v>
       </c>
@@ -1132,7 +1759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3">
       <c r="B12" t="s">
         <v>24</v>
       </c>
@@ -1140,7 +1767,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3">
       <c r="B13" t="s">
         <v>77</v>
       </c>
@@ -1148,7 +1775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3">
       <c r="B14" t="s">
         <v>78</v>
       </c>
@@ -1156,7 +1783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:3">
       <c r="B15" t="s">
         <v>79</v>
       </c>
@@ -1164,12 +1791,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
         <v>81</v>
       </c>
@@ -1177,31 +1804,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -1209,7 +1837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -1217,7 +1845,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -1225,13 +1853,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/知识体系.xlsx
+++ b/知识体系.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\data_structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A129552-55D3-4182-A28F-30C8E99BA4C7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD4AF09-90FE-4174-9991-7FD61A68EB3A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="89">
   <si>
     <t>编程语言</t>
   </si>
@@ -288,6 +288,10 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -631,6 +635,9 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -841,6 +848,9 @@
       <c r="C35" t="s">
         <v>36</v>
       </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
@@ -915,14 +925,22 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
         <v>50</v>
       </c>
-      <c r="D49" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>51</v>
       </c>
     </row>

--- a/知识体系.xlsx
+++ b/知识体系.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\data_structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD4AF09-90FE-4174-9991-7FD61A68EB3A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5193AA16-B634-425E-8105-A039149349E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="91">
   <si>
     <t>编程语言</t>
   </si>
@@ -292,6 +292,14 @@
   </si>
   <si>
     <t>快速排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B树/B+树</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -715,57 +723,57 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>24</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -773,7 +781,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -781,7 +789,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -789,7 +797,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
@@ -797,38 +805,41 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
@@ -836,118 +847,126 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
         <v>50</v>
       </c>
-      <c r="D50" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
+      <c r="D51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/知识体系.xlsx
+++ b/知识体系.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\data_structure\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5193AA16-B634-425E-8105-A039149349E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21000" windowHeight="11595" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="91">
   <si>
     <t>编程语言</t>
   </si>
@@ -31,6 +25,9 @@
     <t>C</t>
   </si>
   <si>
+    <t>完成</t>
+  </si>
+  <si>
     <t>go</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
     <t>红黑树</t>
   </si>
   <si>
+    <t>B树/B+树</t>
+  </si>
+  <si>
     <t>哈希表</t>
   </si>
   <si>
@@ -79,9 +79,6 @@
     <t>TCP/UDP</t>
   </si>
   <si>
-    <t>完成</t>
-  </si>
-  <si>
     <t>HTTP</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
     <t>排序算法</t>
   </si>
   <si>
+    <t>快速排序</t>
+  </si>
+  <si>
     <t>归并排序</t>
   </si>
   <si>
@@ -217,6 +217,9 @@
     <t>redis的内存优化</t>
   </si>
   <si>
+    <t>redis的短连接优化</t>
+  </si>
+  <si>
     <t>Redis key的过期时间和永久有效分别怎么设置？</t>
   </si>
   <si>
@@ -283,31 +286,23 @@
     <t>overlay network</t>
   </si>
   <si>
-    <t>redis的短连接优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快速排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B树/B+树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>k8s分发策略</t>
+  </si>
+  <si>
+    <t>k8s探测机制</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,21 +311,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -338,9 +657,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -348,17 +909,61 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -616,694 +1221,707 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" ht="28.5" spans="2:4">
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:4">
       <c r="C33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
       <c r="C36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
       <c r="C37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
       <c r="C38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
       <c r="C50" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
       <c r="C51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
       <c r="C12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/知识体系.xlsx
+++ b/知识体系.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\data_structure\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90B9A74-883A-460A-95FE-2B49009E4194}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="131">
   <si>
     <t>编程语言</t>
   </si>
@@ -389,18 +395,107 @@
   <si>
     <t>模板特化</t>
   </si>
+  <si>
+    <t>重载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多重继承（菱形继承）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TTPS</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存池</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ector</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gdb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tcpdump</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存泄漏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>strace</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,345 +511,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -762,253 +541,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1017,62 +554,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1330,30 +824,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1361,17 +855,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -1379,32 +873,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="3:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -1412,7 +906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="3:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>13</v>
       </c>
@@ -1420,7 +914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="3:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -1428,7 +922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="3:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -1436,22 +930,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1459,38 +953,38 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>26</v>
       </c>
@@ -1498,7 +992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>27</v>
       </c>
@@ -1506,222 +1000,249 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
-      <c r="B28" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="D28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" ht="28.5" spans="2:4">
-      <c r="B30" s="3" t="s">
+    <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" t="s">
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="D31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" t="s">
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="D32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" t="s">
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="D33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" t="s">
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="D34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" t="s">
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="D35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="3:4">
-      <c r="C38" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
         <v>39</v>
       </c>
-      <c r="D38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4">
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
         <v>40</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="3:3">
-      <c r="C40" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="3:4">
-      <c r="C42" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
         <v>43</v>
       </c>
-      <c r="D42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4">
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
         <v>44</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="3:3">
-      <c r="C46" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="3:3">
-      <c r="C47" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
-      <c r="C49" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
-      <c r="C50" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="3:4">
-      <c r="C55" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
         <v>56</v>
       </c>
-      <c r="D55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4">
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
         <v>57</v>
       </c>
-      <c r="D56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
         <v>58</v>
       </c>
     </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -1729,7 +1250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -1737,7 +1258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1745,7 +1266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -1753,7 +1274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1761,7 +1282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1769,7 +1290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -1777,7 +1298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1785,7 +1306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -1793,7 +1314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -1801,7 +1322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -1809,7 +1330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -1817,7 +1338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -1825,7 +1346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -1833,7 +1354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -1842,26 +1363,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -1869,7 +1389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1877,7 +1397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>76</v>
       </c>
@@ -1885,12 +1405,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>78</v>
       </c>
@@ -1898,7 +1418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>79</v>
       </c>
@@ -1906,7 +1426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>80</v>
       </c>
@@ -1914,7 +1434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -1922,7 +1442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -1930,12 +1450,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>83</v>
       </c>
@@ -1943,7 +1463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>32</v>
       </c>
@@ -1951,7 +1471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>84</v>
       </c>
@@ -1959,7 +1479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>85</v>
       </c>
@@ -1967,7 +1487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>86</v>
       </c>
@@ -1975,12 +1495,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>88</v>
       </c>
@@ -1988,32 +1508,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -2021,7 +1540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -2029,7 +1548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -2037,67 +1556,66 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -2105,12 +1623,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
+      <c r="C7" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>104</v>
       </c>
@@ -2120,8 +1641,11 @@
       <c r="D8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="9" spans="3:5">
+      <c r="E8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>107</v>
       </c>
@@ -2132,44 +1656,75 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="4:4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D10" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" ht="28.5" spans="1:1">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>116</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/知识体系.xlsx
+++ b/知识体系.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\data_structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90B9A74-883A-460A-95FE-2B49009E4194}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD43FCF-AF18-475A-950B-BCE238744DDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="139">
   <si>
     <t>编程语言</t>
   </si>
@@ -488,6 +488,51 @@
   </si>
   <si>
     <t>strace</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造函数不能是虚函数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>析构函数可以是虚函数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果父类定义了虚函数，那么父类的析构函数要定义成虚函数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tatic_cast</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamic_cast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>const_cast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reinterpret_cast</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -555,6 +600,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -832,7 +880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
@@ -1579,15 +1627,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1662,63 +1712,93 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="B14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>115</v>
+      <c r="A16" s="1"/>
+      <c r="B16" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
         <v>125</v>
       </c>
     </row>

--- a/知识体系.xlsx
+++ b/知识体系.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\data_structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD43FCF-AF18-475A-950B-BCE238744DDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D331E7-3313-47D2-9183-46AB813683F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="142">
   <si>
     <t>编程语言</t>
   </si>
@@ -533,6 +533,18 @@
   </si>
   <si>
     <t>reinterpret_cast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单例模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察者模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>适配器模式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -878,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1026,70 +1038,69 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
+      <c r="B23" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="4" t="s">
-        <v>119</v>
+      <c r="D27" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>29</v>
       </c>
-      <c r="D29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
+    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>33</v>
       </c>
       <c r="D33" t="s">
         <v>2</v>
@@ -1097,7 +1108,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
         <v>2</v>
@@ -1105,7 +1116,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
         <v>2</v>
@@ -1113,167 +1124,183 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>37</v>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>42</v>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
         <v>43</v>
       </c>
-      <c r="D43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
         <v>44</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D46" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C56" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
         <v>56</v>
       </c>
-      <c r="D56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C57" t="s">
+      <c r="D58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
         <v>57</v>
       </c>
-      <c r="D57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>126</v>
-      </c>
-      <c r="B59" t="s">
-        <v>127</v>
+      <c r="D59" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>126</v>
+      </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1629,7 +1656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>

--- a/知识体系.xlsx
+++ b/知识体系.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\data_structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D331E7-3313-47D2-9183-46AB813683F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4798CC-7FF2-4C56-9EA0-5E41F8D84083}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="147">
   <si>
     <t>编程语言</t>
   </si>
@@ -545,6 +545,26 @@
   </si>
   <si>
     <t>适配器模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么岗位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用到了哪些开源软件还是自研的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对个人有什么建议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试有几轮，每轮之间间隔多久</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -890,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1295,6 +1315,31 @@
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/知识体系.xlsx
+++ b/知识体系.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\data_structure\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6C94F4-6F9F-4957-A391-C3E14AFF4064}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
     <sheet name="redis" sheetId="2" r:id="rId2"/>
     <sheet name="nginx" sheetId="3" r:id="rId3"/>
-    <sheet name="C++" sheetId="5" r:id="rId4"/>
-    <sheet name="HTTP&amp;HTTPS" sheetId="6" r:id="rId5"/>
-    <sheet name="k8s" sheetId="4" r:id="rId6"/>
+    <sheet name="HTTP&amp;HTTPS" sheetId="6" r:id="rId4"/>
+    <sheet name="k8s" sheetId="4" r:id="rId5"/>
+    <sheet name="C++" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="165">
   <si>
     <t>编程语言</t>
   </si>
@@ -595,18 +601,45 @@
   <si>
     <t>k8s探测机制</t>
   </si>
+  <si>
+    <t>选择排序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆排序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loyd</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,345 +655,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -968,253 +692,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1227,62 +709,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1540,30 +979,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1571,17 +1010,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -1589,32 +1028,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="3:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -1622,7 +1061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="3:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>13</v>
       </c>
@@ -1630,7 +1069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="3:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -1638,7 +1077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="3:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -1646,7 +1085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="3:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -1654,7 +1093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="3:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>17</v>
       </c>
@@ -1662,12 +1101,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1678,7 +1117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>21</v>
@@ -1687,47 +1126,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>29</v>
       </c>
@@ -1735,7 +1174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -1743,7 +1182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
@@ -1751,12 +1190,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>33</v>
       </c>
@@ -1764,12 +1203,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" ht="28.5" spans="2:4">
+    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
         <v>35</v>
       </c>
@@ -1777,7 +1216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>36</v>
       </c>
@@ -1785,7 +1224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>37</v>
       </c>
@@ -1793,7 +1232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>38</v>
       </c>
@@ -1801,7 +1240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>39</v>
       </c>
@@ -1809,7 +1248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>40</v>
       </c>
@@ -1817,210 +1256,226 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="3:4">
-      <c r="C41" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
         <v>43</v>
       </c>
-      <c r="D41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4">
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
         <v>44</v>
       </c>
-      <c r="D42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4">
-      <c r="C43" t="s">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
         <v>45</v>
       </c>
-      <c r="D43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="3:4">
-      <c r="C45" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
         <v>47</v>
       </c>
-      <c r="D45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4">
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
         <v>48</v>
       </c>
-      <c r="D46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
-      <c r="C49" t="s">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
-      <c r="C50" t="s">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C52" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
-      <c r="C52" t="s">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="3:3">
-      <c r="C53" t="s">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
-      <c r="B55" t="s">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="3:4">
-      <c r="C58" t="s">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
         <v>60</v>
       </c>
-      <c r="D58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="3:4">
-      <c r="C59" t="s">
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
         <v>61</v>
       </c>
-      <c r="D59" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" t="s">
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C63" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>63</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
-      <c r="B62" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
-      <c r="B63" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
         <v>66</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C67" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
-      <c r="B64" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -2028,7 +1483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -2036,7 +1491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -2044,7 +1499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -2052,7 +1507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -2060,7 +1515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -2068,7 +1523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -2076,7 +1531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -2084,7 +1539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -2092,7 +1547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -2100,7 +1555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -2108,7 +1563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -2116,7 +1571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -2124,7 +1579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -2132,7 +1587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -2141,26 +1596,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -2168,7 +1622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -2176,7 +1630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>91</v>
       </c>
@@ -2184,12 +1638,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>93</v>
       </c>
@@ -2197,7 +1651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>94</v>
       </c>
@@ -2205,7 +1659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>95</v>
       </c>
@@ -2213,7 +1667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>96</v>
       </c>
@@ -2221,7 +1675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -2229,12 +1683,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>98</v>
       </c>
@@ -2242,7 +1696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>36</v>
       </c>
@@ -2250,7 +1704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>99</v>
       </c>
@@ -2258,7 +1712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>100</v>
       </c>
@@ -2266,7 +1720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>101</v>
       </c>
@@ -2274,12 +1728,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>103</v>
       </c>
@@ -2287,59 +1741,204 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -2347,7 +1946,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>112</v>
       </c>
@@ -2355,7 +1954,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>114</v>
       </c>
@@ -2369,7 +1968,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="3:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>118</v>
       </c>
@@ -2380,22 +1979,22 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="4:4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D10" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>124</v>
       </c>
@@ -2403,7 +2002,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" ht="71.25" spans="1:4">
+    <row r="14" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>126</v>
       </c>
@@ -2417,7 +2016,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>130</v>
       </c>
@@ -2425,30 +2024,30 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>136</v>
       </c>
@@ -2456,177 +2055,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>139</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
-  <cols>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/知识体系.xlsx
+++ b/知识体系.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\data_structure\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6C94F4-6F9F-4957-A391-C3E14AFF4064}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="165">
   <si>
     <t>编程语言</t>
   </si>
@@ -188,6 +182,9 @@
     <t>epoll事件</t>
   </si>
   <si>
+    <t>内存管理</t>
+  </si>
+  <si>
     <t>开源软件</t>
   </si>
   <si>
@@ -224,6 +221,28 @@
     <t>A*</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loyd</t>
+    </r>
+  </si>
+  <si>
     <t>搜索</t>
   </si>
   <si>
@@ -251,6 +270,12 @@
     <t>归并排序</t>
   </si>
   <si>
+    <t>选择排序</t>
+  </si>
+  <si>
+    <t>堆排序</t>
+  </si>
+  <si>
     <t>回溯算法</t>
   </si>
   <si>
@@ -269,6 +294,9 @@
     <t>valgrind</t>
   </si>
   <si>
+    <t>addressSanitizer</t>
+  </si>
+  <si>
     <t>strace</t>
   </si>
   <si>
@@ -378,6 +406,66 @@
   </si>
   <si>
     <t>slab共享内存</t>
+  </si>
+  <si>
+    <t>常用方法</t>
+  </si>
+  <si>
+    <t>返回码</t>
+  </si>
+  <si>
+    <t>get和post的区别</t>
+  </si>
+  <si>
+    <t>报文格式</t>
+  </si>
+  <si>
+    <t>pipline</t>
+  </si>
+  <si>
+    <t>持久连接</t>
+  </si>
+  <si>
+    <t>http2.0</t>
+  </si>
+  <si>
+    <t>多路复用</t>
+  </si>
+  <si>
+    <t>头部压缩</t>
+  </si>
+  <si>
+    <t>服务器推送</t>
+  </si>
+  <si>
+    <t>https</t>
+  </si>
+  <si>
+    <t>握手流程</t>
+  </si>
+  <si>
+    <t>CA证书</t>
+  </si>
+  <si>
+    <t>会话复用</t>
+  </si>
+  <si>
+    <t>coredns</t>
+  </si>
+  <si>
+    <t>Ingress</t>
+  </si>
+  <si>
+    <t>flannel</t>
+  </si>
+  <si>
+    <t>overlay network</t>
+  </si>
+  <si>
+    <t>k8s分发策略</t>
+  </si>
+  <si>
+    <t>k8s探测机制</t>
   </si>
   <si>
     <t>extern关键字</t>
@@ -541,105 +629,18 @@
   <si>
     <t>list</t>
   </si>
-  <si>
-    <t>常用方法</t>
-  </si>
-  <si>
-    <t>返回码</t>
-  </si>
-  <si>
-    <t>get和post的区别</t>
-  </si>
-  <si>
-    <t>报文格式</t>
-  </si>
-  <si>
-    <t>pipline</t>
-  </si>
-  <si>
-    <t>持久连接</t>
-  </si>
-  <si>
-    <t>http2.0</t>
-  </si>
-  <si>
-    <t>多路复用</t>
-  </si>
-  <si>
-    <t>头部压缩</t>
-  </si>
-  <si>
-    <t>服务器推送</t>
-  </si>
-  <si>
-    <t>https</t>
-  </si>
-  <si>
-    <t>握手流程</t>
-  </si>
-  <si>
-    <t>CA证书</t>
-  </si>
-  <si>
-    <t>会话复用</t>
-  </si>
-  <si>
-    <t>coredns</t>
-  </si>
-  <si>
-    <t>Ingress</t>
-  </si>
-  <si>
-    <t>flannel</t>
-  </si>
-  <si>
-    <t>overlay network</t>
-  </si>
-  <si>
-    <t>k8s分发策略</t>
-  </si>
-  <si>
-    <t>k8s探测机制</t>
-  </si>
-  <si>
-    <t>选择排序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>堆排序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内存管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>loyd</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,36 +656,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -692,36 +1002,318 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -979,30 +1571,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1010,17 +1602,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -1028,32 +1623,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2">
       <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:4">
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -1061,7 +1656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:4">
       <c r="C12" t="s">
         <v>13</v>
       </c>
@@ -1069,7 +1664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:4">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -1077,7 +1672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:4">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -1085,7 +1680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:4">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -1093,7 +1688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:4">
       <c r="C16" t="s">
         <v>17</v>
       </c>
@@ -1101,72 +1696,72 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="2:4">
+      <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
+    <row r="19" spans="2:4">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
+    <row r="21" spans="2:3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1"/>
       <c r="B23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4">
       <c r="B27" t="s">
         <v>29</v>
       </c>
@@ -1174,7 +1769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -1182,7 +1777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4">
       <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
@@ -1190,12 +1785,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2">
       <c r="B30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4">
       <c r="B31" t="s">
         <v>33</v>
       </c>
@@ -1203,20 +1798,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="5" t="s">
+    <row r="33" ht="28.5" spans="2:4">
+      <c r="B33" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D33" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4">
       <c r="B34" t="s">
         <v>36</v>
       </c>
@@ -1224,7 +1819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4">
       <c r="B35" t="s">
         <v>37</v>
       </c>
@@ -1232,7 +1827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:4">
       <c r="B36" t="s">
         <v>38</v>
       </c>
@@ -1240,7 +1835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:4">
       <c r="B37" t="s">
         <v>39</v>
       </c>
@@ -1248,7 +1843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:4">
       <c r="B38" t="s">
         <v>40</v>
       </c>
@@ -1256,447 +1851,466 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:4">
+      <c r="B39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
       <c r="C42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D42" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
       <c r="C44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D44" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4">
       <c r="C46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D46" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C52" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4">
       <c r="C60" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:4">
       <c r="C61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D61" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C63" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
       <c r="B66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3">
       <c r="B12" t="s">
         <v>36</v>
       </c>
@@ -1704,380 +2318,383 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
       <c r="C9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>130</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" ht="71.25" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/知识体系.xlsx
+++ b/知识体系.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="165">
   <si>
     <t>编程语言</t>
   </si>
@@ -635,19 +635,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,6 +656,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -671,8 +715,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,72 +755,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -786,15 +773,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,6 +802,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -821,13 +898,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,157 +982,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,21 +993,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1042,15 +1020,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1062,6 +1031,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,16 +1084,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1118,137 +1111,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1257,7 +1250,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1580,7 +1572,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1785,9 +1777,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:4">
       <c r="B30" t="s">
         <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -1852,10 +1847,10 @@
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1929,7 +1924,7 @@
       </c>
     </row>
     <row r="52" spans="3:3">
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1990,7 +1985,7 @@
       </c>
     </row>
     <row r="63" spans="3:3">
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="1" t="s">
         <v>65</v>
       </c>
     </row>

--- a/知识体系.xlsx
+++ b/知识体系.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\opensource\data_structure\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A64F01-BE55-45F0-BC94-6E15CD3F7AF2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="165">
   <si>
     <t>编程语言</t>
   </si>
@@ -633,14 +639,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,345 +649,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -995,251 +671,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1251,61 +685,17 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1563,30 +953,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1594,7 +984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -1602,12 +992,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -1615,32 +1005,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="2:2">
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="3:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -1648,7 +1044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="3:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>13</v>
       </c>
@@ -1656,7 +1052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="3:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -1664,7 +1060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="3:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -1672,7 +1068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="3:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>16</v>
       </c>
@@ -1680,7 +1076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="3:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>17</v>
       </c>
@@ -1688,12 +1084,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1704,7 +1100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>21</v>
@@ -1713,47 +1109,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>29</v>
       </c>
@@ -1761,7 +1157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -1769,7 +1165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
@@ -1777,7 +1173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>32</v>
       </c>
@@ -1785,7 +1181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>33</v>
       </c>
@@ -1793,12 +1189,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" ht="28.5" spans="2:4">
+    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>35</v>
       </c>
@@ -1806,7 +1202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>36</v>
       </c>
@@ -1814,7 +1210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>37</v>
       </c>
@@ -1822,7 +1218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>38</v>
       </c>
@@ -1830,7 +1226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>39</v>
       </c>
@@ -1838,7 +1234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>40</v>
       </c>
@@ -1846,7 +1242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>41</v>
       </c>
@@ -1854,17 +1250,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="3:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>44</v>
       </c>
@@ -1872,12 +1268,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="3:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>46</v>
       </c>
@@ -1885,12 +1281,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="3:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>48</v>
       </c>
@@ -1898,72 +1294,81 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="3:3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="51" spans="3:3">
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="52" spans="3:3">
+      <c r="D51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="53" spans="2:2">
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="3:3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="3:3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="3:4">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>62</v>
       </c>
@@ -1971,7 +1376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="3:4">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>63</v>
       </c>
@@ -1979,22 +1384,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="3:3">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="3:3">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="64" spans="2:2">
+      <c r="D63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -2005,7 +1413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="2:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>69</v>
       </c>
@@ -2013,7 +1421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>70</v>
       </c>
@@ -2021,7 +1429,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="3:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
         <v>72</v>
       </c>
@@ -2029,7 +1437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>73</v>
       </c>
@@ -2037,53 +1445,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -2091,7 +1498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -2099,7 +1506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -2107,7 +1514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -2115,7 +1522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -2123,7 +1530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -2131,7 +1538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -2139,7 +1546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -2147,7 +1554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -2155,7 +1562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -2163,7 +1570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -2171,7 +1578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -2179,7 +1586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -2187,7 +1594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -2195,7 +1602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -2204,26 +1611,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -2231,7 +1637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -2239,7 +1645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>96</v>
       </c>
@@ -2247,12 +1653,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>98</v>
       </c>
@@ -2260,7 +1666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>99</v>
       </c>
@@ -2268,7 +1674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>100</v>
       </c>
@@ -2276,7 +1682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -2284,7 +1690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -2292,12 +1698,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>103</v>
       </c>
@@ -2305,7 +1711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>36</v>
       </c>
@@ -2313,7 +1719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>104</v>
       </c>
@@ -2321,7 +1727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>105</v>
       </c>
@@ -2329,7 +1735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>106</v>
       </c>
@@ -2337,12 +1743,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>108</v>
       </c>
@@ -2350,32 +1756,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>109</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -2383,32 +1788,32 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>116</v>
       </c>
@@ -2416,17 +1821,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -2434,37 +1839,36 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -2472,7 +1876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -2480,7 +1884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>126</v>
       </c>
@@ -2488,69 +1892,68 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>129</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -2558,7 +1961,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>137</v>
       </c>
@@ -2566,7 +1969,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>139</v>
       </c>
@@ -2580,7 +1983,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="3:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>143</v>
       </c>
@@ -2591,22 +1994,22 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="4:4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D10" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>149</v>
       </c>
@@ -2614,7 +2017,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" ht="71.25" spans="1:4">
+    <row r="14" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>151</v>
       </c>
@@ -2628,7 +2031,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>155</v>
       </c>
@@ -2636,30 +2039,30 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>161</v>
       </c>
@@ -2667,29 +2070,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>